--- a/02_Inventory/Docs/Lab1/Lab01_ReviewReport.xlsx
+++ b/02_Inventory/Docs/Lab1/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovidi\InventoryVVS\02_Inventory\Docs\Lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovidi\InventoryVVS_NOU\VVS\02_Inventory\Docs\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE47DD6-ACCB-4423-92D6-0F2B4729678F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96013580-9ADA-482C-8B92-7A1D136D5C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="650" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="650" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="86">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Exista mesajul de eroare ca si atribut in Controllere.</t>
-  </si>
-  <si>
     <t>Se regasesc relatiile de Mostenire(InHousePart&amp;Part), Dependenta, Compozitie(Part&amp;Inventory), Observer intre Controllere si Service(ObservableList)</t>
   </si>
   <si>
@@ -291,6 +288,12 @@
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours):20 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>No (Am adaugat package-ul de validator si am sters functia de validare din clasa Part)</t>
   </si>
 </sst>
 </file>
@@ -972,7 +975,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J3" s="17">
         <v>233</v>
@@ -990,7 +993,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J4" s="3">
         <v>323</v>
@@ -1048,7 +1051,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -1214,8 +1217,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1260,7 +1263,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J3" s="17">
         <v>233</v>
@@ -1278,7 +1281,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J4" s="3">
         <v>323</v>
@@ -1334,10 +1337,10 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1347,7 +1350,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -1376,7 +1379,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1386,7 +1389,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="57" x14ac:dyDescent="0.45">
@@ -1399,7 +1402,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -1447,11 +1450,11 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
@@ -1523,7 +1526,7 @@
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1594,7 +1597,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J3" s="17">
         <v>233</v>
@@ -1612,7 +1615,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J4" s="3">
         <v>323</v>
@@ -1664,13 +1667,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -1680,10 +1683,10 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -1710,13 +1713,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -1869,7 +1872,7 @@
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1895,7 +1898,7 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -1943,7 +1946,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J3" s="17">
         <v>233</v>
@@ -1959,7 +1962,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J4" s="3">
         <v>323</v>
@@ -2008,16 +2011,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
@@ -2026,16 +2029,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
@@ -2044,16 +2047,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
@@ -2062,16 +2065,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
@@ -2080,16 +2083,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -2244,7 +2247,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C31" s="43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="44"/>

--- a/02_Inventory/Docs/Lab1/Lab01_ReviewReport.xlsx
+++ b/02_Inventory/Docs/Lab1/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovidi\InventoryVVS_NOU\VVS\02_Inventory\Docs\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96013580-9ADA-482C-8B92-7A1D136D5C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA6D8DA-8493-4E56-840D-E10BB6CAAFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="650" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -284,9 +284,6 @@
     <t>Atribute declarate dar nefolosite (partId, partIdTxt)</t>
   </si>
   <si>
-    <t>Nu se specifica in ce mod sunt adaugate piesele in cadrul unui produs(ex. Dupa denumire, ID)</t>
-  </si>
-  <si>
     <t>Effort to perform tool-based code analysis (hours):20 min</t>
   </si>
   <si>
@@ -294,6 +291,9 @@
   </si>
   <si>
     <t>No (Am adaugat package-ul de validator si am sters functia de validare din clasa Part)</t>
+  </si>
+  <si>
+    <t>Nu se specifica in ce mod sunt adaugate piesele in cadrul unui produs(ex: dupa o lista de piese)</t>
   </si>
 </sst>
 </file>
@@ -928,8 +928,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1051,7 +1051,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -1217,7 +1217,7 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -2247,7 +2247,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C31" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="44"/>
